--- a/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>345541</v>
+        <v>345542</v>
       </c>
       <c r="D10" t="n">
         <v>64165</v>
       </c>
       <c r="E10" t="n">
-        <v>1817722552</v>
+        <v>1817724469</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6973</v>
+        <v>6974</v>
       </c>
       <c r="D35" t="n">
         <v>1092</v>
       </c>
       <c r="E35" t="n">
-        <v>32898723</v>
+        <v>32982760</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>211204</v>
+        <v>211205</v>
       </c>
       <c r="D36" t="n">
         <v>48185</v>
       </c>
       <c r="E36" t="n">
-        <v>404241351</v>
+        <v>404243995</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3157,13 +3157,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27102</v>
+        <v>27103</v>
       </c>
       <c r="D67" t="n">
         <v>4262</v>
       </c>
       <c r="E67" t="n">
-        <v>168709110</v>
+        <v>168710610</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>29543</v>
+        <v>29544</v>
       </c>
       <c r="D96" t="n">
         <v>3814</v>
       </c>
       <c r="E96" t="n">
-        <v>56432511</v>
+        <v>56437349</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9344</v>
+        <v>9345</v>
       </c>
       <c r="D100" t="n">
         <v>1304</v>
       </c>
       <c r="E100" t="n">
-        <v>23829850</v>
+        <v>23837942</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4633,13 +4633,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D103" t="n">
         <v>79</v>
       </c>
       <c r="E103" t="n">
-        <v>994952</v>
+        <v>996792</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306293</v>
+        <v>1306296</v>
       </c>
       <c r="D121" t="n">
         <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2275160411</v>
+        <v>2275168996</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633639</v>
+        <v>633650</v>
       </c>
       <c r="D129" t="n">
         <v>104969</v>
       </c>
       <c r="E129" t="n">
-        <v>3432160682</v>
+        <v>3432321719</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585908</v>
+        <v>585914</v>
       </c>
       <c r="D132" t="n">
         <v>90784</v>
       </c>
       <c r="E132" t="n">
-        <v>3469933322</v>
+        <v>3470178008</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25082</v>
+        <v>25083</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92493053</v>
+        <v>92541885</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>515885</v>
+        <v>515886</v>
       </c>
       <c r="D178" t="n">
         <v>115380</v>
       </c>
       <c r="E178" t="n">
-        <v>891200284</v>
+        <v>891200853</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236829</v>
+        <v>236832</v>
       </c>
       <c r="D186" t="n">
         <v>46318</v>
       </c>
       <c r="E186" t="n">
-        <v>1189938674</v>
+        <v>1189961448</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283320</v>
+        <v>283321</v>
       </c>
       <c r="D237" t="n">
         <v>49797</v>
       </c>
       <c r="E237" t="n">
-        <v>1438419995</v>
+        <v>1438426190</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205917</v>
+        <v>205918</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1069507520</v>
+        <v>1069509020</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
